--- a/biology/Botanique/Magnistipula_butayei/Magnistipula_butayei.xlsx
+++ b/biology/Botanique/Magnistipula_butayei/Magnistipula_butayei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Magnistipula butayei est une espèce de plantes à fleurs du genre Magnistipula dans la famille des Chrysobalanaceae[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Magnistipula butayei est une espèce de plantes à fleurs du genre Magnistipula dans la famille des Chrysobalanaceae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épithète spécifique butayei lui a été donnée en hommage au père jésuite belge René Butaye.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est un arbre à feuilles persistantes qui peut atteindre 30 mètres de hauteur[4], quelques spécimens atteignant 45 mètres. Son écorce est grise et assez lisse. Ses fleurs, blanches, font 7 mm de longueur[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est un arbre à feuilles persistantes qui peut atteindre 30 mètres de hauteur, quelques spécimens atteignant 45 mètres. Son écorce est grise et assez lisse. Ses fleurs, blanches, font 7 mm de longueur.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces arbres sont parfois abattus pour les utiliser en tant que médicament ou pour fabriquer des cuillères et des mortiers en bois. Leur bois sert de carburant ou de charbon. Les feuilles sont écrasées et la poudre est appliquée sur les cordons ombilicaux des bébés comme désinfectant[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces arbres sont parfois abattus pour les utiliser en tant que médicament ou pour fabriquer des cuillères et des mortiers en bois. Leur bois sert de carburant ou de charbon. Les feuilles sont écrasées et la poudre est appliquée sur les cordons ombilicaux des bébés comme désinfectant.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se trouve en Afrique tropicale, allant du Liberia jusqu'à la République centrafricaine, au Congo, en Tanzanie, vers le sud de l’Angola, au Malawi et en Zambie dans les forêts et les milieux sub-montagnards[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se trouve en Afrique tropicale, allant du Liberia jusqu'à la République centrafricaine, au Congo, en Tanzanie, vers le sud de l’Angola, au Malawi et en Zambie dans les forêts et les milieux sub-montagnards.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (17 juillet 2017)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (17 juillet 2017) :
 sous-espèce Magnistipula butayei subsp. balingembaensis Sothers, Prance &amp; B.J.Pollard
 sous-espèce Magnistipula butayei subsp. bangweolensis (R.E.Fr.) F.White
 sous-espèce Magnistipula butayei subsp. butayei
@@ -649,7 +671,7 @@
 sous-espèce Magnistipula butayei subsp. sargosii (Pellegr.) F.White
 sous-espèce Magnistipula butayei subsp. tisserantii (Aubrév. &amp; Pellegr.) F.White
 sous-espèce Magnistipula butayei subsp. youngii (Mendes) F.White
-Selon The Plant List            (17 juillet 2017)[1] :
+Selon The Plant List            (17 juillet 2017) :
 sous-espèce Magnistipula butayei subsp. bangweolensis (R.E.Fr.) F.White
 sous-espèce Magnistipula butayei subsp. glabriuscula (Hauman) Champl.
 sous-espèce Magnistipula butayei subsp. greenwayi (Brenan) F.White
@@ -657,7 +679,7 @@
 sous-espèce Magnistipula butayei subsp. sargosii (Pellegr.) F.White
 sous-espèce Magnistipula butayei subsp. tisserantii (Aubrév. &amp; Pellegr.) F.White
 sous-espèce Magnistipula butayei subsp. youngii (Mendes) F.White
-Selon Tropicos                                           (17 juillet 2017)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (17 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Magnistipula butayei subsp. balingenbaensis Sothers, Prance &amp; B.J. Pollard
 sous-espèce Magnistipula butayei subsp. bangweolensis (R.E. Fr.) F. White
 sous-espèce Magnistipula butayei subsp. butayei
